--- a/Data/cr6_all.xlsx
+++ b/Data/cr6_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonm/Dropbox (APSU GIS)/Projects (DB)/Dissertation/3DP_Experiments/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4CCDA3-0724-4F49-A57D-32FA8844C507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10870095-F4D3-824E-A3EF-C280594B0131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Rework Calc" sheetId="4" r:id="rId4"/>
     <sheet name="rework+cost" sheetId="5" r:id="rId5"/>
     <sheet name="rework+time" sheetId="6" r:id="rId6"/>
+    <sheet name="Reduced+Cost" sheetId="7" r:id="rId7"/>
+    <sheet name="Reduced+Time" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
   <si>
     <t>trial</t>
   </si>
@@ -1007,7 +1009,7 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5233,7 +5235,7 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13681,8 +13683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0518DC72-50A0-1540-B12B-05C2D1A245AE}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17022,7 +17024,7 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20350,5 +20352,2393 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F256A22C-149D-AB49-B6C5-520311C9D993}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD298"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.16</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>0.25</v>
+      </c>
+      <c r="J2">
+        <v>0.4</v>
+      </c>
+      <c r="K2">
+        <v>0.8</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.56379465030959053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
+      <c r="K3">
+        <v>1.2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.53598182331506972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>0.16</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>0.25</v>
+      </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+      <c r="K4">
+        <v>1.2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.58307911741280238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>0.4</v>
+      </c>
+      <c r="K5">
+        <v>0.8</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1.1027918157423493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0.16</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>0.15</v>
+      </c>
+      <c r="J6">
+        <v>0.4</v>
+      </c>
+      <c r="K6">
+        <v>1.2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.58433050142099874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>0.15</v>
+      </c>
+      <c r="J7">
+        <v>0.4</v>
+      </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.53098141453071401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.16</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <v>0.8</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.54948465788231093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+      <c r="J9">
+        <v>0.4</v>
+      </c>
+      <c r="K9">
+        <v>1.2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.56536653474096843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>0.16</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>0.25</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>1.2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.58483878328656069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>0.8</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.59157886865339215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.16</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>0.8</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.79755536032785423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>0.25</v>
+      </c>
+      <c r="J13">
+        <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>1.2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.56569647209229812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.16</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>0.15</v>
+      </c>
+      <c r="J14">
+        <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>0.8</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.59066767649338503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>0.15</v>
+      </c>
+      <c r="J15">
+        <v>0.8</v>
+      </c>
+      <c r="K15">
+        <v>1.2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.56678734603768544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>0.16</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>0.15</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>1.2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.57009184679941194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>0.15</v>
+      </c>
+      <c r="J17">
+        <v>0.8</v>
+      </c>
+      <c r="K17">
+        <v>0.8</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.56845783965432761</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CB28F7-5ED3-D44C-888B-A137236E6F53}">
+  <dimension ref="A1:M81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H2" s="9">
+        <v>50</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
+        <v>18098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H3" s="9">
+        <v>50</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="9">
+        <v>60</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>14493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H5" s="9">
+        <v>60</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>10281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H6" s="9">
+        <v>50</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>14914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7" s="9">
+        <v>50</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>10423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H8" s="9">
+        <v>60</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>16648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H9" s="9">
+        <v>60</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H10" s="9">
+        <v>50</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>15085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H11" s="9">
+        <v>50</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>10624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="9">
+        <v>60</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>16870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H13" s="9">
+        <v>60</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>8645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H14" s="9">
+        <v>50</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9">
+        <v>17046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H15" s="9">
+        <v>50</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H16" s="9">
+        <v>60</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9">
+        <v>13488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H17" s="9">
+        <v>60</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>9574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/cr6_all.xlsx
+++ b/Data/cr6_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonm/Dropbox (APSU GIS)/Projects (DB)/Dissertation/3DP_Experiments/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F93E9-BD7D-7E45-9827-C4C7B40BCFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D930CBB6-22F3-F74C-9501-BB11A48E196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -270,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +450,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -612,7 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -623,6 +629,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -16943,13 +16952,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A92898-E3B2-C341-AE64-04F613024DFE}">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -17201,63 +17226,63 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>0.25</v>
-      </c>
-      <c r="J5">
-        <v>0.4</v>
-      </c>
-      <c r="K5">
-        <v>0.8</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H5" s="10">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
         <v>0.5402918157423493</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="10">
         <v>10191</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="12">
         <v>250</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="10">
         <v>90</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="10">
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="11">
         <f t="shared" si="2"/>
         <v>1.1027918157423493</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="10">
         <f t="shared" si="3"/>
         <v>10281</v>
       </c>
@@ -17641,63 +17666,63 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.16</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
-      </c>
-      <c r="I12">
-        <v>0.25</v>
-      </c>
-      <c r="J12">
-        <v>0.8</v>
-      </c>
-      <c r="K12">
-        <v>0.8</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="B12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="10">
+        <v>60</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11">
         <v>0.61005536032785423</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="10">
         <v>16840</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="12">
         <v>400</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="10">
         <v>30</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="10">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="11">
         <f t="shared" si="2"/>
         <v>0.79755536032785423</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="10">
         <f t="shared" si="3"/>
         <v>16870</v>
       </c>
@@ -18207,125 +18232,125 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>-1</v>
-      </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="I21">
-        <v>0.25</v>
-      </c>
-      <c r="J21">
-        <v>0.4</v>
-      </c>
-      <c r="K21">
-        <v>0.8</v>
-      </c>
-      <c r="L21">
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H21" s="10">
+        <v>60</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="10">
         <v>2</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="11">
         <v>0.54027398129092608</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="10">
         <v>10185</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="12">
         <v>400</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="10">
         <v>30</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="10">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="11">
         <f t="shared" si="2"/>
         <v>0.72777398129092608</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="10">
         <f t="shared" si="3"/>
         <v>10215</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>-1</v>
-      </c>
-      <c r="C22">
-        <v>-1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>-1</v>
-      </c>
-      <c r="F22">
-        <v>-1</v>
-      </c>
-      <c r="G22">
-        <v>0.16</v>
-      </c>
-      <c r="H22">
-        <v>50</v>
-      </c>
-      <c r="I22">
-        <v>0.15</v>
-      </c>
-      <c r="J22">
-        <v>0.4</v>
-      </c>
-      <c r="K22">
-        <v>1.2</v>
-      </c>
-      <c r="L22">
+      <c r="B22" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="H22" s="10">
+        <v>50</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="L22" s="10">
         <v>2</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="11">
         <v>0.58420863266960665</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="10">
         <v>14873</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="12">
         <v>400</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="10">
         <v>30</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="10">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="11">
         <f t="shared" si="2"/>
         <v>0.77170863266960665</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="10">
         <f t="shared" si="3"/>
         <v>14903</v>
       </c>
@@ -18520,63 +18545,63 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>-1</v>
-      </c>
-      <c r="C26">
-        <v>-1</v>
-      </c>
-      <c r="D26">
-        <v>-1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>-1</v>
-      </c>
-      <c r="G26">
-        <v>0.16</v>
-      </c>
-      <c r="H26">
-        <v>50</v>
-      </c>
-      <c r="I26">
-        <v>0.25</v>
-      </c>
-      <c r="J26">
-        <v>0.8</v>
-      </c>
-      <c r="K26">
-        <v>1.2</v>
-      </c>
-      <c r="L26">
+      <c r="B26" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="H26" s="10">
+        <v>50</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="L26" s="10">
         <v>2</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="11">
         <v>0.5849160659093946</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="10">
         <v>15111</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="12">
         <v>400</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="10">
         <v>30</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="10">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="11">
         <f t="shared" si="2"/>
         <v>0.7724160659093946</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="10">
         <f t="shared" si="3"/>
         <v>15141</v>
       </c>
@@ -28729,7 +28754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F43A50-897D-5240-AFA5-C3D188457F14}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
